--- a/docs/ST1a/ST1a_26.07.24_output.xlsx
+++ b/docs/ST1a/ST1a_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731662171.1908996</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731662171.5674977</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662171.1908996.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662171.5674977.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>299.35</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>297.4</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>1.950000000000045</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.65</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731662171.9447653</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731662172.2967227</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662171.9447653.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662172.2967227.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>298.69</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>297.27</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>1.420000000000016</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731662172.4764857</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731662173.2541037</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662172.4764857.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662173.2541037.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>296.43</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>296.3</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.04</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731662173.2690365</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731662174.1380038</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662173.2690365.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662174.1380038.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>296.3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>296.07</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.2300000000000182</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731662175.0233438</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731662176.0081117</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662175.0233438.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662176.0081117.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>294.94</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>294.03</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.910000000000025</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731662176.0230432</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731662178.9027445</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662176.0230432.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662178.9027445.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>294.03</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>294.97</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.9400000000000546</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731662179.78536</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731662180.9553418</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662179.78536.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731662180.9553418.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>294.52</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>294.73</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.2100000000000364</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731662186.2996378</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731662186.4008453</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662186.2996378.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662186.4008453.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>135.96</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>134.91</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>1.050000000000011</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.77</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731662186.819647</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731662187.2062945</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662186.819647.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662187.2062945.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>135.33</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>134.68</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.6500000000000057</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731662187.3499148</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731662188.1294804</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662187.3499148.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662188.1294804.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>134.45</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>133.57</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-0.8799999999999955</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.65</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731662188.183407</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731662188.8662202</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662188.183407.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662188.8662202.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>133.67</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>134.01</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731662188.9715736</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731662190.1749337</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662188.9715736.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662190.1749337.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>133.86</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>133.12</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.7400000000000091</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.5499999999999999</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731662190.1898963</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731662190.5918453</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662190.1898963.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662190.5918453.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>133.12</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>133.16</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.03999999999999204</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731662193.5450149</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731662193.9735851</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662193.5450149.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662193.9735851.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>134.99</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>135.16</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.1699999999999875</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731662195.483132</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731662195.8005562</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662195.483132.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731662195.8005562.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>135.57</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>135.39</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -1319,51 +1425,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731662196.3303366</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731662196.9658725</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662196.3303366.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662196.9658725.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>6922</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>6965</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-43</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.62</v>
       </c>
     </row>
@@ -1371,51 +1483,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731662196.981833</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731662198.3971505</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662196.981833.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662198.3971505.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>6965</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>6933.5</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>-31.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -1423,51 +1541,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731662200.226368</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731662200.837376</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662200.226368.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662200.837376.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>6949</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>6906</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>43</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>0.62</v>
       </c>
     </row>
@@ -1475,51 +1599,57 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731662201.0209959</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731662203.3798902</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662201.0209959.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662203.3798902.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>6936</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>6925.5</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>10.5</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1527,51 +1657,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731662203.8215692</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731662204.1239102</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662203.8215692.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662204.1239102.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6919</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6867.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>51.5</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.74</v>
       </c>
     </row>
@@ -1579,51 +1715,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731662204.6926606</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731662205.8713517</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662204.6926606.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731662205.8713517.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6893.5</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6924.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-31</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.45</v>
       </c>
     </row>
@@ -1631,51 +1773,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731662215.3572628</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731662216.1205897</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662215.3572628.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662216.1205897.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>533.95</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>524.9</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>9.050000000000068</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>1.69</v>
       </c>
     </row>
@@ -1683,51 +1831,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731662216.3491037</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731662216.8747587</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662216.3491037.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662216.8747587.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>529.05</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>527.95</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>1.099999999999909</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1735,51 +1889,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731662218.3622692</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731662218.9853213</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662218.3622692.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662218.9853213.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>521.5</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>521.5</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1787,51 +1947,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731662219.0463202</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731662223.4424274</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662219.0463202.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731662223.4424274.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>521.5</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>524.4</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>2.899999999999977</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -1839,51 +2005,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731662224.5277982</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731662225.450037</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662224.5277982.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662225.450037.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1097.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1096</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-1.200000000000045</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1891,51 +2063,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731662228.0005515</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731662228.5330563</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662228.0005515.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662228.5330563.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1094.2</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>1096.6</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>2.399999999999864</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1943,51 +2121,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731662228.5490165</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731662228.6527941</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662228.5490165.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662228.6527941.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>1096.6</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>1088.4</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>8.199999999999818</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.75</v>
       </c>
     </row>
@@ -1995,51 +2179,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731662229.0905082</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731662229.4393005</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662229.0905082.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662229.4393005.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>1087</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>1081</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>6</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.5499999999999999</v>
       </c>
     </row>
@@ -2047,51 +2237,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731662229.4946692</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731662230.5270638</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662229.4946692.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662230.5270638.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>1078.6</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>1074.4</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-4.199999999999818</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>-0.39</v>
       </c>
     </row>
@@ -2099,51 +2295,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731662230.548993</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731662231.3529818</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662230.548993.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662231.3529818.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>1074.4</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>1075.2</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2151,51 +2353,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731662231.3689127</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731662232.498781</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662231.3689127.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662232.498781.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1075.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1062.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-12.79999999999995</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-1.19</v>
       </c>
     </row>
@@ -2203,51 +2411,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731662232.5147104</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731662232.9927015</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662232.5147104.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662232.9927015.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1062.4</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1063</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.5999999999999091</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2255,51 +2469,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731662233.047934</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731662235.1181679</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662233.047934.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731662235.1181679.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1063</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1073.4</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>10.40000000000009</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.98</v>
       </c>
     </row>
@@ -2307,51 +2527,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731662239.2122576</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731662239.5478895</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662239.2122576.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662239.5478895.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>130.82</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>131</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -2359,51 +2585,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731662239.5638554</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731662243.318194</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662239.5638554.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662243.318194.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>131</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>128.58</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>2.419999999999987</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>1.85</v>
       </c>
     </row>
@@ -2411,51 +2643,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731662243.6275468</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731662244.756814</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662243.6275468.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662244.756814.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>129.48</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>126.94</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>2.539999999999992</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>1.96</v>
       </c>
     </row>
@@ -2463,51 +2701,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731662245.2283812</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731662245.670539</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662245.2283812.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731662245.670539.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>127.48</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>127.42</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2515,51 +2759,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731662252.9341137</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731662253.3548303</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662252.9341137.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662253.3548303.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>173.5</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>173.56</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -2567,51 +2817,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731662256.5786793</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731662257.254145</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662256.5786793.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662257.254145.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>176</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>173.86</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-2.139999999999986</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>-1.22</v>
       </c>
     </row>
@@ -2619,51 +2875,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731662257.3070455</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731662257.687614</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662257.3070455.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662257.687614.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>174.5</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>172.7</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>1.800000000000011</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>1.03</v>
       </c>
     </row>
@@ -2671,51 +2933,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731662263.6916182</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731662264.1765475</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662263.6916182.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731662264.1765475.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>170.42</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>170.6</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2723,51 +2991,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731662272.7959976</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731662273.373628</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662272.7959976.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662273.373628.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>52.5</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>52.215</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>-0.2849999999999966</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>-0.54</v>
       </c>
     </row>
@@ -2775,51 +3049,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731662273.4661121</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731662273.942668</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662273.4661121.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662273.942668.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>52.2</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>52.225</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.02499999999999858</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -2827,51 +3107,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731662274.7579286</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731662277.0841808</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662274.7579286.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731662277.0841808.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>52.09</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>52.27</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.35</v>
       </c>
     </row>
@@ -2879,51 +3165,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731662280.048543</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731662283.38099</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662280.048543.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662283.38099.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>1460</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>1461.6</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2931,51 +3223,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731662284.4501655</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731662284.799008</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662284.4501655.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662284.799008.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>1452.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>1448.2</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>4.599999999999909</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -2983,51 +3281,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731662284.983516</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731662285.9736116</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662284.983516.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662285.9736116.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>1448.8</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>1445.6</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-3.200000000000045</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.22</v>
       </c>
     </row>
@@ -3035,51 +3339,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731662285.9905663</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731662286.5722783</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662285.9905663.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662286.5722783.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>1445.6</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>1432.4</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>13.19999999999982</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3087,51 +3397,57 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731662287.4665732</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731662288.0760362</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662287.4665732.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662288.0760362.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>1422.8</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>1421</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>1.799999999999955</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -3139,51 +3455,57 @@
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731662290.7925632</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731662291.417784</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662290.7925632.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731662291.417784.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>1438.4</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>1437.6</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.8000000000001819</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3191,51 +3513,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731662293.915196</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731662294.270415</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662293.915196.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662294.270415.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>63.5</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>63.58</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>-0.13</v>
       </c>
     </row>
@@ -3243,51 +3571,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731662294.4012406</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731662295.0467143</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662294.4012406.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662295.0467143.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>63.54</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>63.54</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3295,51 +3629,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731662297.2341573</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731662297.6870575</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662297.2341573.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662297.6870575.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>63.73</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>63.15</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3347,51 +3687,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731662298.1113372</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731662299.0791695</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662298.1113372.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662299.0791695.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>63.36</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>62.47</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.8900000000000006</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -3399,51 +3745,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731662299.5648742</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731662300.4073322</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662299.5648742.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731662300.4073322.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>62.41</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>60.99</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1.419999999999995</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -3451,51 +3803,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731662310.3335495</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731662310.7079144</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662310.3335495.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662310.7079144.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>58.46</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>58.19</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.2700000000000031</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -3503,51 +3861,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731662311.7556133</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731662312.9802868</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662311.7556133.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662312.9802868.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>57.88</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>56.84</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>1.039999999999999</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>1.8</v>
       </c>
     </row>
@@ -3555,51 +3919,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731662313.9479482</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731662314.8450694</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662313.9479482.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/SELG1731662314.8450694.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>56.53</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>56.71</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.1799999999999997</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.32</v>
       </c>
     </row>
@@ -3607,95 +3977,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731662318.5934963</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731662318.5934963.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731662318.5934963.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>57.27</v>
       </c>
-      <c r="J62" t="n">
-        <v>57.27</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>56.92</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.3500000000000014</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.61</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731662319.5040936</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731662320.5430229</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662319.5040936.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662320.5430229.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>144.82</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>144.54</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>-0.2800000000000011</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -3703,51 +4085,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731662320.7100334</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731662322.2575967</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662320.7100334.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662322.2575967.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>144.58</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>145.02</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.4399999999999977</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.3</v>
       </c>
     </row>
@@ -3755,51 +4143,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731662322.3132827</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731662322.7559183</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662322.3132827.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662322.7559183.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>145.02</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>145.1</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.07999999999998408</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -3807,51 +4201,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731662324.491513</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731662325.4219875</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662324.491513.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662325.4219875.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>143</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>140.88</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>-2.120000000000005</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>-1.48</v>
       </c>
     </row>
@@ -3859,51 +4259,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731662326.4737535</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731662327.5652297</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662326.4737535.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731662327.5652297.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>141.66</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>139.32</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>-2.340000000000003</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>-1.65</v>
       </c>
     </row>
@@ -3911,51 +4317,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731662334.186037</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731662336.2540164</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662334.186037.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662336.2540164.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>58.48</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>58.56</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>-0.0800000000000054</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3963,51 +4375,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731662336.2719414</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731662337.2712507</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662336.2719414.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662337.2712507.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>58.56</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>57.24</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-1.32</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-2.25</v>
       </c>
     </row>
@@ -4015,51 +4433,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731662337.288209</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731662337.7031593</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662337.288209.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662337.7031593.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>57.24</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>56.83</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.4100000000000037</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.72</v>
       </c>
     </row>
@@ -4067,51 +4491,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731662339.7618864</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731662340.7935376</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662339.7618864.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662340.7935376.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>56.15</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>55.83</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.3200000000000003</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -4119,51 +4549,57 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731662343.7735877</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731662344.0639195</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662343.7735877.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731662344.0639195.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>56.54</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>56.47</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>0.07000000000000028</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -4171,95 +4607,107 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731662345.2101183</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>./test_images/ABIO1731662345.2101183.png</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
+          <t>./test_images/ABIO1731662345.2101183.png</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>56.2</v>
       </c>
-      <c r="J73" t="n">
-        <v>56.2</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0</v>
-      </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>56.07</v>
+      </c>
+      <c r="M73" t="n">
+        <v>0.1300000000000026</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731662346.9730651</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731662347.3439121</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662346.9730651.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662347.3439121.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>382.56</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>382.2</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.3600000000000136</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4267,51 +4715,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731662349.8556774</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731662350.8254228</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662349.8556774.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662350.8254228.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>384.5</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>383</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.5</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -4319,51 +4773,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731662352.3302684</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731662352.891139</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662352.3302684.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662352.891139.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>381.77</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>381.62</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.1499999999999773</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -4371,51 +4831,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731662352.9090903</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731662354.9294322</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662352.9090903.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731662354.9294322.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>381.62</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>385.21</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>3.589999999999975</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.9400000000000001</v>
       </c>
     </row>
@@ -4423,51 +4889,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731662359.632122</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731662362.0372531</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662359.632122.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662362.0372531.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>0.10122</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>0.10112</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.0001000000000000029</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4475,51 +4947,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731662363.1875508</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731662365.738004</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662363.1875508.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662365.738004.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>0.10058</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>0.09766000000000001</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.002919999999999992</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>2.9</v>
       </c>
     </row>
@@ -4527,51 +5005,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>FEES</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731662369.0713506</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731662371.2788193</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662369.0713506.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/FEES1731662371.2788193.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>0.09876000000000001</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>0.09892000000000001</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.0001599999999999935</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4579,51 +5063,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731662372.4465816</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731662373.361146</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662372.4465816.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662373.361146.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>3131.3</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>3127.9</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-3.400000000000091</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4631,51 +5121,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731662374.925692</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731662375.585221</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662374.925692.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662375.585221.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>3132.85</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>3132.4</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>-0.4499999999998181</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -4683,51 +5179,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731662375.6021795</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731662375.9557655</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662375.6021795.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662375.9557655.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3132.4</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>3110.2</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>22.20000000000027</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>0.7100000000000001</v>
       </c>
     </row>
@@ -4735,51 +5237,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731662376.3827868</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731662376.7622042</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662376.3827868.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662376.7622042.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>3117.95</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>3101.6</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>16.34999999999991</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -4787,51 +5295,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731662377.9103785</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731662378.3803525</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662377.9103785.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MXI1731662378.3803525.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>3088.55</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>3079.6</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>8.950000000000273</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -4839,51 +5353,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731662385.3600857</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731662386.8061786</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731662385.3600857.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731662386.8061786.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>37.865</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>37.835</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>-0.03000000000000114</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4891,51 +5411,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731662389.6588404</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731662390.0211596</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731662389.6588404.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731662390.0211596.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>37.79</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>37.3</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.490000000000002</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>1.3</v>
       </c>
     </row>
@@ -4943,51 +5469,57 @@
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" t="n">
+        <v>86</v>
+      </c>
+      <c r="C88" t="n">
+        <v>86</v>
+      </c>
+      <c r="D88" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>1731662400.6005154</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>1731662401.2907162</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662400.6005154.png</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="H88" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662401.2907162.png</t>
         </is>
       </c>
-      <c r="G88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I88" t="n">
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
         <v>660.4</v>
       </c>
-      <c r="J88" t="n">
+      <c r="L88" t="n">
         <v>660.3</v>
       </c>
-      <c r="K88" t="n">
+      <c r="M88" t="n">
         <v>0.1000000000000227</v>
       </c>
-      <c r="L88" t="n">
+      <c r="N88" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -4995,51 +5527,57 @@
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" t="n">
+        <v>87</v>
+      </c>
+      <c r="C89" t="n">
+        <v>87</v>
+      </c>
+      <c r="D89" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>1731662401.348316</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>1731662401.4493477</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662401.348316.png</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662401.4493477.png</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I89" t="n">
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
         <v>660.8</v>
       </c>
-      <c r="J89" t="n">
+      <c r="L89" t="n">
         <v>661.3</v>
       </c>
-      <c r="K89" t="n">
+      <c r="M89" t="n">
         <v>0.5</v>
       </c>
-      <c r="L89" t="n">
+      <c r="N89" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5047,51 +5585,57 @@
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" t="n">
+        <v>88</v>
+      </c>
+      <c r="C90" t="n">
+        <v>88</v>
+      </c>
+      <c r="D90" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>1731662403.010342</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>1731662404.0198038</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662403.010342.png</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662404.0198038.png</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="I90" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I90" t="n">
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
         <v>661.2</v>
       </c>
-      <c r="J90" t="n">
+      <c r="L90" t="n">
         <v>655.3</v>
       </c>
-      <c r="K90" t="n">
+      <c r="M90" t="n">
         <v>5.900000000000091</v>
       </c>
-      <c r="L90" t="n">
+      <c r="N90" t="n">
         <v>0.89</v>
       </c>
     </row>
@@ -5099,51 +5643,57 @@
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" t="n">
+        <v>89</v>
+      </c>
+      <c r="C91" t="n">
+        <v>89</v>
+      </c>
+      <c r="D91" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>1731662404.3762972</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>1731662404.7053533</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662404.3762972.png</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662404.7053533.png</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="I91" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
         <v>655.4</v>
       </c>
-      <c r="J91" t="n">
+      <c r="L91" t="n">
         <v>650.1</v>
       </c>
-      <c r="K91" t="n">
+      <c r="M91" t="n">
         <v>5.299999999999955</v>
       </c>
-      <c r="L91" t="n">
+      <c r="N91" t="n">
         <v>0.8099999999999999</v>
       </c>
     </row>
@@ -5151,51 +5701,57 @@
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" t="n">
+        <v>90</v>
+      </c>
+      <c r="C92" t="n">
+        <v>90</v>
+      </c>
+      <c r="D92" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>1731662405.0249176</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>1731662405.6090748</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662405.0249176.png</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="H92" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662405.6090748.png</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
         <v>654.8</v>
       </c>
-      <c r="J92" t="n">
+      <c r="L92" t="n">
         <v>655.9</v>
       </c>
-      <c r="K92" t="n">
+      <c r="M92" t="n">
         <v>-1.100000000000023</v>
       </c>
-      <c r="L92" t="n">
+      <c r="N92" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -5203,51 +5759,57 @@
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" t="n">
+        <v>91</v>
+      </c>
+      <c r="C93" t="n">
+        <v>91</v>
+      </c>
+      <c r="D93" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>1731662407.3084176</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>1731662410.6985292</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662407.3084176.png</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662410.6985292.png</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="I93" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
         <v>652</v>
       </c>
-      <c r="J93" t="n">
+      <c r="L93" t="n">
         <v>654.5</v>
       </c>
-      <c r="K93" t="n">
+      <c r="M93" t="n">
         <v>2.5</v>
       </c>
-      <c r="L93" t="n">
+      <c r="N93" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -5255,51 +5817,57 @@
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" t="n">
+        <v>92</v>
+      </c>
+      <c r="C94" t="n">
+        <v>92</v>
+      </c>
+      <c r="D94" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>1731662411.8053653</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>1731662412.4366791</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662411.8053653.png</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>./test_images/TATN1731662412.4366791.png</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="I94" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
         <v>653.3</v>
       </c>
-      <c r="J94" t="n">
+      <c r="L94" t="n">
         <v>652.8</v>
       </c>
-      <c r="K94" t="n">
+      <c r="M94" t="n">
         <v>0.5</v>
       </c>
-      <c r="L94" t="n">
+      <c r="N94" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -5449,19 +6017,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.6000000000000014</v>
+        <v>-0.4699999999999989</v>
       </c>
       <c r="C6" t="n">
         <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1000000000000002</v>
+        <v>-0.07833333333333314</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9800000000000001</v>
+        <v>-0.7500000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.16</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="7">
@@ -5647,19 +6215,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.130000000000003</v>
+        <v>1.480000000000004</v>
       </c>
       <c r="C15" t="n">
         <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0.2825000000000006</v>
+        <v>0.370000000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>1.94</v>
+        <v>2.55</v>
       </c>
       <c r="F15" t="n">
-        <v>0.48</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="16">
